--- a/Documents/Dokumentation/Projektphasen Gantt-Diagramm Abschnitt 1 - 3.xlsx
+++ b/Documents/Dokumentation/Projektphasen Gantt-Diagramm Abschnitt 1 - 3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC4DCF1-ACCF-4D08-BA36-BE32FDCB0DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A72BC8-4ABA-4EC0-A8FA-822177D4890D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1472,6 +1472,18 @@
     <xf numFmtId="0" fontId="0" fillId="49" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1485,18 +1497,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Akzent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2107,7 +2107,7 @@
   <dimension ref="A1:BL59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -2129,13 +2129,13 @@
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
       <c r="H1" s="1"/>
       <c r="I1" s="9"/>
     </row>
@@ -2155,117 +2155,117 @@
       <c r="B3" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="120">
+      <c r="D3" s="118"/>
+      <c r="E3" s="115">
         <v>44382</v>
       </c>
-      <c r="F3" s="120"/>
+      <c r="F3" s="115"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="114"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="117">
+      <c r="I4" s="112">
         <f>I5</f>
         <v>44382</v>
       </c>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="117">
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="112">
         <f>P5</f>
         <v>44389</v>
       </c>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="117">
+      <c r="Q4" s="113"/>
+      <c r="R4" s="113"/>
+      <c r="S4" s="113"/>
+      <c r="T4" s="113"/>
+      <c r="U4" s="113"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="112">
         <f>W5</f>
         <v>44396</v>
       </c>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="119"/>
-      <c r="AD4" s="117">
+      <c r="X4" s="113"/>
+      <c r="Y4" s="113"/>
+      <c r="Z4" s="113"/>
+      <c r="AA4" s="113"/>
+      <c r="AB4" s="113"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="112">
         <f>AD5</f>
         <v>44403</v>
       </c>
-      <c r="AE4" s="118"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="118"/>
-      <c r="AH4" s="118"/>
-      <c r="AI4" s="118"/>
-      <c r="AJ4" s="119"/>
-      <c r="AK4" s="117">
+      <c r="AE4" s="113"/>
+      <c r="AF4" s="113"/>
+      <c r="AG4" s="113"/>
+      <c r="AH4" s="113"/>
+      <c r="AI4" s="113"/>
+      <c r="AJ4" s="114"/>
+      <c r="AK4" s="112">
         <f>AK5</f>
         <v>44410</v>
       </c>
-      <c r="AL4" s="118"/>
-      <c r="AM4" s="118"/>
-      <c r="AN4" s="118"/>
-      <c r="AO4" s="118"/>
-      <c r="AP4" s="118"/>
-      <c r="AQ4" s="119"/>
-      <c r="AR4" s="117">
+      <c r="AL4" s="113"/>
+      <c r="AM4" s="113"/>
+      <c r="AN4" s="113"/>
+      <c r="AO4" s="113"/>
+      <c r="AP4" s="113"/>
+      <c r="AQ4" s="114"/>
+      <c r="AR4" s="112">
         <f>AR5</f>
         <v>44417</v>
       </c>
-      <c r="AS4" s="118"/>
-      <c r="AT4" s="118"/>
-      <c r="AU4" s="118"/>
-      <c r="AV4" s="118"/>
-      <c r="AW4" s="118"/>
-      <c r="AX4" s="119"/>
-      <c r="AY4" s="117">
+      <c r="AS4" s="113"/>
+      <c r="AT4" s="113"/>
+      <c r="AU4" s="113"/>
+      <c r="AV4" s="113"/>
+      <c r="AW4" s="113"/>
+      <c r="AX4" s="114"/>
+      <c r="AY4" s="112">
         <f>AY5</f>
         <v>44424</v>
       </c>
-      <c r="AZ4" s="118"/>
-      <c r="BA4" s="118"/>
-      <c r="BB4" s="118"/>
-      <c r="BC4" s="118"/>
-      <c r="BD4" s="118"/>
-      <c r="BE4" s="119"/>
-      <c r="BF4" s="117">
+      <c r="AZ4" s="113"/>
+      <c r="BA4" s="113"/>
+      <c r="BB4" s="113"/>
+      <c r="BC4" s="113"/>
+      <c r="BD4" s="113"/>
+      <c r="BE4" s="114"/>
+      <c r="BF4" s="112">
         <f>BF5</f>
         <v>44431</v>
       </c>
-      <c r="BG4" s="118"/>
-      <c r="BH4" s="118"/>
-      <c r="BI4" s="118"/>
-      <c r="BJ4" s="118"/>
-      <c r="BK4" s="118"/>
-      <c r="BL4" s="119"/>
+      <c r="BG4" s="113"/>
+      <c r="BH4" s="113"/>
+      <c r="BI4" s="113"/>
+      <c r="BJ4" s="113"/>
+      <c r="BK4" s="113"/>
+      <c r="BL4" s="114"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
       <c r="I5" s="69">
         <f>Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Woche_anzeigen-1)</f>
         <v>44382</v>
@@ -6604,6 +6604,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
@@ -6612,11 +6617,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D30 D55:D56">
     <cfRule type="dataBar" priority="16">
